--- a/Testing/Ash Chamber Sensor Testing/Testing 4 Aug/OPCN2 vs Opacity Meter Analysis.xlsx
+++ b/Testing/Ash Chamber Sensor Testing/Testing 4 Aug/OPCN2 vs Opacity Meter Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\My Uni Work\3rd Pro\ENMT401\volcanic-ash-uav\Testing\Ash Chamber Sensor Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\My Uni Work\3rd Pro\ENMT401\volcanic-ash-uav\Testing\Ash Chamber Sensor Testing\Testing 4 Aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,6 +591,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>&lt;53</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Micron Volcanic Ash Testing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -7512,7 +7572,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7525,7 +7585,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1200"/>
+                  <a:rPr lang="en-NZ"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -7544,7 +7604,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7582,7 +7642,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7629,7 +7689,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7642,12 +7702,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1200"/>
-                  <a:t>Concentration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-NZ" sz="1200" baseline="0"/>
-                  <a:t> (mg/m^3)</a:t>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Concentration (mg/m^3)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7665,7 +7721,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7703,7 +7759,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7745,7 +7801,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7785,7 +7841,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8689,7 +8745,7 @@
   <dimension ref="A1:H761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
